--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acdes\Documents\CSCI_306\C12A1_Desiato_Ortega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leviortega/eclipse-workspace/ClueGame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103394B8-7862-4F6A-A1FA-EA051048150D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DC07E-FC50-2347-BD20-D01E0E7E7240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="2540" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,18 +96,9 @@
     <t>J*</t>
   </si>
   <si>
-    <t>SO</t>
-  </si>
-  <si>
     <t>R^</t>
   </si>
   <si>
-    <t>SO*</t>
-  </si>
-  <si>
-    <t>SO#</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -117,22 +108,31 @@
     <t>S#</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>GS*</t>
-  </si>
-  <si>
-    <t>GS#</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>HP*</t>
-  </si>
-  <si>
-    <t>HP#</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L*</t>
+  </si>
+  <si>
+    <t>L#</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P#</t>
+  </si>
+  <si>
+    <t>P*</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N#</t>
+  </si>
+  <si>
+    <t>N*</t>
   </si>
 </sst>
 </file>
@@ -484,19 +484,19 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -506,7 +506,7 @@
     <col min="20" max="25" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -598,13 +598,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -675,13 +675,13 @@
         <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -702,10 +702,10 @@
         <v>13</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>13</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -752,13 +752,13 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -779,10 +779,10 @@
         <v>13</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>13</v>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -829,13 +829,13 @@
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -856,10 +856,10 @@
         <v>17</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>13</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -906,25 +906,25 @@
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>13</v>
@@ -933,10 +933,10 @@
         <v>13</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>13</v>
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -983,59 +983,59 @@
         <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="W7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="X7" s="4" t="s">
         <v>1</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>13</v>
@@ -1087,13 +1087,13 @@
         <v>13</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1170,10 +1170,10 @@
         <v>13</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>13</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1216,14 +1216,14 @@
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>13</v>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>13</v>
@@ -1247,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>14</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1293,17 +1293,17 @@
       <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>13</v>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>13</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>13</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1371,14 +1371,14 @@
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>13</v>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
@@ -1402,19 +1402,19 @@
         <v>13</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>13</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1479,19 +1479,19 @@
         <v>13</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>13</v>
@@ -1506,7 +1506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1583,33 +1583,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>13</v>
@@ -1639,54 +1639,54 @@
         <v>13</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>13</v>
@@ -1716,54 +1716,54 @@
         <v>13</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>13</v>
@@ -1793,54 +1793,54 @@
         <v>13</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>13</v>
@@ -1870,54 +1870,54 @@
         <v>17</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
@@ -1947,28 +1947,28 @@
         <v>13</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Y19" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leviortega/eclipse-workspace/ClueGame/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DC07E-FC50-2347-BD20-D01E0E7E7240}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{10685CE9-EDBD-499F-B68B-F767EAB83F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="2540" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -487,16 +483,16 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -506,7 +502,7 @@
     <col min="20" max="25" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5">
         <v>0</v>
@@ -581,7 +577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -658,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -735,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -812,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -889,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -966,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1043,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1120,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1197,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1274,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1352,7 +1348,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1429,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1506,7 +1502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1583,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1737,7 +1733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1814,7 +1810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1891,7 +1887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1968,7 +1964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2045,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2122,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2199,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2353,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2430,7 +2426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{10685CE9-EDBD-499F-B68B-F767EAB83F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leviortega/eclipse-workspace/ClueGame/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62780D37-5612-6B41-ABA0-FBA193EE99AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="2820" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="37">
   <si>
     <t>X</t>
   </si>
@@ -119,16 +123,19 @@
     <t>P#</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N#</t>
+  </si>
+  <si>
+    <t>N*</t>
+  </si>
+  <si>
+    <t>Rv</t>
+  </si>
+  <si>
     <t>P*</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N#</t>
-  </si>
-  <si>
-    <t>N*</t>
   </si>
 </sst>
 </file>
@@ -480,19 +487,19 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.33203125" bestFit="1" customWidth="1"/>
@@ -502,7 +509,7 @@
     <col min="20" max="25" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="5">
         <v>0</v>
@@ -577,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -654,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -731,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -808,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -885,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -962,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1213,13 +1220,13 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>13</v>
@@ -1270,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1290,13 +1297,13 @@
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>14</v>
@@ -1326,7 +1333,7 @@
         <v>30</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>30</v>
@@ -1348,7 +1355,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1368,13 +1375,13 @@
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>13</v>
@@ -1404,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>30</v>
@@ -1425,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>30</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>30</v>
@@ -1502,7 +1509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1887,7 +1894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2041,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2100,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>10</v>
@@ -2118,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2195,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2426,7 +2433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>

--- a/data/ClueLayout.xlsx
+++ b/data/ClueLayout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leviortega/eclipse-workspace/ClueGame/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D169EA4-F069-9048-BFDA-0982C91C0A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A11C677-8724-1B4B-A819-1655D059078A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{45C9F756-0EF2-7849-ADF8-7DE35EDE649F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{1C509876-B554-0446-B4E9-CBA3C8A3C97C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="37">
   <si>
     <t>J</t>
   </si>
@@ -78,73 +78,64 @@
     <t>J*</t>
   </si>
   <si>
-    <t>N#</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N*</t>
-  </si>
-  <si>
     <t>P#</t>
   </si>
   <si>
     <t>P*</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>S#</t>
+  </si>
+  <si>
+    <t>T*</t>
+  </si>
+  <si>
+    <t>T#</t>
+  </si>
+  <si>
+    <t>S*</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Rv</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S#</t>
+    <t>O#</t>
+  </si>
+  <si>
+    <t>H#</t>
+  </si>
+  <si>
+    <t>O*</t>
   </si>
   <si>
     <t>G*</t>
   </si>
   <si>
+    <t>H*</t>
+  </si>
+  <si>
     <t>G#</t>
   </si>
   <si>
-    <t>S*</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Rv</t>
-  </si>
-  <si>
-    <t>O#</t>
-  </si>
-  <si>
-    <t>H#</t>
-  </si>
-  <si>
-    <t>O*</t>
-  </si>
-  <si>
-    <t>H*</t>
-  </si>
-  <si>
     <t>HB</t>
   </si>
   <si>
     <t>GJ</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>T*</t>
-  </si>
-  <si>
-    <t>T#</t>
   </si>
 </sst>
 </file>
@@ -524,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F03917-8A77-8547-824C-42C4669A202D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B7F116-7830-D441-8D6C-C8A95CF0130A}">
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,14 +1132,14 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -1215,17 +1206,17 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>2</v>
@@ -1246,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>8</v>
@@ -1289,44 +1280,44 @@
       <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>8</v>
@@ -1497,28 +1488,28 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1548,51 +1539,51 @@
         <v>3</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1622,51 +1613,51 @@
         <v>3</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>3</v>
@@ -1696,51 +1687,51 @@
         <v>3</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1770,51 +1761,51 @@
         <v>11</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>15</v>
@@ -1844,25 +1835,25 @@
         <v>3</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -1941,16 +1932,16 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>15</v>
@@ -1974,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>15</v>
@@ -1995,60 +1986,60 @@
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -2066,173 +2057,173 @@
         <v>3</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="V22" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="T23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
@@ -2240,40 +2231,40 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -2288,22 +2279,22 @@
         <v>3</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>36</v>
